--- a/public/questions.xlsx
+++ b/public/questions.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
     <sheet name="skills" sheetId="2" r:id="rId2"/>
     <sheet name="tracks" sheetId="3" r:id="rId3"/>
     <sheet name="levels" sheetId="4" r:id="rId4"/>
-    <sheet name="test_questions" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="another" sheetId="5" r:id="rId5"/>
+    <sheet name="test_questions" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="199">
   <si>
     <t>skill_id</t>
   </si>
@@ -2606,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5277,10 +5277,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P70"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5827,1149 +5827,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-      <c r="F17">
-        <v>7</v>
-      </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-      <c r="H17" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18" t="s">
-        <v>153</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>7</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-      <c r="H19" t="s">
-        <v>98</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>34</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" t="s">
-        <v>157</v>
-      </c>
-      <c r="G20" t="s">
-        <v>158</v>
-      </c>
-      <c r="H20" t="s">
-        <v>159</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>154</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>34</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" t="s">
-        <v>156</v>
-      </c>
-      <c r="F21" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" t="s">
-        <v>158</v>
-      </c>
-      <c r="H21" t="s">
-        <v>161</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="N21" t="s">
-        <v>154</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>34</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G22" t="s">
-        <v>158</v>
-      </c>
-      <c r="H22" t="s">
-        <v>161</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="N22" t="s">
-        <v>154</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>34</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>196</v>
-      </c>
-      <c r="E23" t="s">
-        <v>197</v>
-      </c>
-      <c r="F23" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" t="s">
-        <v>164</v>
-      </c>
-      <c r="H23" t="s">
-        <v>159</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="N23" t="s">
-        <v>163</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>34</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>165</v>
-      </c>
-      <c r="E24" t="s">
-        <v>156</v>
-      </c>
-      <c r="F24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G24" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" t="s">
-        <v>159</v>
-      </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="N24" t="s">
-        <v>163</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>34</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G25" t="s">
-        <v>98</v>
-      </c>
-      <c r="H25" t="s">
-        <v>159</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>163</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>34</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26" t="s">
-        <v>172</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="N26" t="s">
-        <v>175</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>34</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>171</v>
-      </c>
-      <c r="E27" t="s">
-        <v>168</v>
-      </c>
-      <c r="F27" t="s">
-        <v>169</v>
-      </c>
-      <c r="G27" t="s">
-        <v>170</v>
-      </c>
-      <c r="H27" t="s">
-        <v>173</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="N27" t="s">
-        <v>175</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>34</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28" t="s">
-        <v>168</v>
-      </c>
-      <c r="F28" t="s">
-        <v>169</v>
-      </c>
-      <c r="G28" t="s">
-        <v>170</v>
-      </c>
-      <c r="H28" t="s">
-        <v>173</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="N28" t="s">
-        <v>175</v>
-      </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>59</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>176</v>
-      </c>
-      <c r="E29" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" t="s">
-        <v>178</v>
-      </c>
-      <c r="G29" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" t="s">
-        <v>179</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="N29" t="s">
-        <v>187</v>
-      </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>59</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>176</v>
-      </c>
-      <c r="E30" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" t="s">
-        <v>178</v>
-      </c>
-      <c r="G30" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" t="s">
-        <v>179</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s">
-        <v>188</v>
-      </c>
-      <c r="P30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>59</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>176</v>
-      </c>
-      <c r="E31" t="s">
-        <v>177</v>
-      </c>
-      <c r="F31" t="s">
-        <v>178</v>
-      </c>
-      <c r="G31" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" t="s">
-        <v>179</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="N31" t="s">
-        <v>189</v>
-      </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>59</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s">
-        <v>180</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s">
-        <v>190</v>
-      </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>59</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s">
-        <v>181</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>3</v>
-      </c>
-      <c r="H33">
-        <v>5</v>
-      </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="N33" t="s">
-        <v>190</v>
-      </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>59</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s">
-        <v>182</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>7</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="N34" t="s">
-        <v>190</v>
-      </c>
-      <c r="P34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>59</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>192</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
-        <v>59</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>193</v>
-      </c>
-      <c r="I36">
-        <v>2</v>
-      </c>
-      <c r="P36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
-        <v>59</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>194</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
-        <v>59</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="P38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
-        <v>60</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="P39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
-        <v>60</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="P40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
-        <v>60</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="P41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
-        <v>60</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="P42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
-        <v>60</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="P43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
-        <v>60</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
-        <v>60</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="P45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15">
-        <v>60</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
-        <v>3</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>3</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
-        <v>3</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="P49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>4</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="P50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
-        <v>4</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
-        <v>4</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="P52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>35</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="P53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
-        <v>35</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="P54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
-        <v>35</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="P55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>35</v>
-      </c>
-      <c r="B56">
-        <v>2</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="P56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>35</v>
-      </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="P57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5">
-        <v>35</v>
-      </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="P58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5">
-        <v>35</v>
-      </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="P59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5">
-        <v>35</v>
-      </c>
-      <c r="B60">
-        <v>3</v>
-      </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="P60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5">
-        <v>35</v>
-      </c>
-      <c r="B61">
-        <v>3</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="P61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5">
-        <v>36</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="P62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5">
-        <v>36</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="P63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
-        <v>36</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="P64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5">
-        <v>36</v>
-      </c>
-      <c r="B65">
-        <v>2</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="P65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="5">
-        <v>36</v>
-      </c>
-      <c r="B66">
-        <v>2</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="P66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="5">
-        <v>36</v>
-      </c>
-      <c r="B67">
-        <v>2</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="P67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="5">
-        <v>36</v>
-      </c>
-      <c r="B68">
-        <v>3</v>
-      </c>
-      <c r="C68">
-        <v>2</v>
-      </c>
-      <c r="P68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="5">
-        <v>36</v>
-      </c>
-      <c r="B69">
-        <v>3</v>
-      </c>
-      <c r="C69">
-        <v>2</v>
-      </c>
-      <c r="P69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="5">
-        <v>36</v>
-      </c>
-      <c r="B70">
-        <v>3</v>
-      </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-      <c r="P70">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6978,12 +5835,1697 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="14">
+        <v>5</v>
+      </c>
+      <c r="F8" s="14">
+        <v>6</v>
+      </c>
+      <c r="G8" s="14">
+        <v>7</v>
+      </c>
+      <c r="H8" s="14">
+        <v>3</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="14">
+        <v>6</v>
+      </c>
+      <c r="F9" s="14">
+        <v>8</v>
+      </c>
+      <c r="G9" s="14">
+        <v>7</v>
+      </c>
+      <c r="H9" s="14">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="14">
+        <v>9</v>
+      </c>
+      <c r="F10" s="14">
+        <v>5</v>
+      </c>
+      <c r="G10" s="14">
+        <v>6</v>
+      </c>
+      <c r="H10" s="14">
+        <v>8</v>
+      </c>
+      <c r="I10" s="14">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="14">
+        <v>5</v>
+      </c>
+      <c r="F11" s="14">
+        <v>8</v>
+      </c>
+      <c r="G11" s="14">
+        <v>7</v>
+      </c>
+      <c r="H11" s="14">
+        <v>6</v>
+      </c>
+      <c r="I11" s="14">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="14">
+        <v>5</v>
+      </c>
+      <c r="F12" s="14">
+        <v>9</v>
+      </c>
+      <c r="G12" s="14">
+        <v>8</v>
+      </c>
+      <c r="H12" s="14">
+        <v>6</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="14">
+        <v>5</v>
+      </c>
+      <c r="F13" s="14">
+        <v>4</v>
+      </c>
+      <c r="G13" s="14">
+        <v>8</v>
+      </c>
+      <c r="H13" s="14">
+        <v>9</v>
+      </c>
+      <c r="I13" s="14">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="14">
+        <v>4</v>
+      </c>
+      <c r="H14" s="14">
+        <v>3</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="14">
+        <v>7</v>
+      </c>
+      <c r="F15" s="14">
+        <v>6</v>
+      </c>
+      <c r="G15" s="14">
+        <v>3</v>
+      </c>
+      <c r="H15" s="14">
+        <v>2</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14">
+        <v>2</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <v>3</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" t="s">
+        <v>158</v>
+      </c>
+      <c r="H20" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>154</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H21" t="s">
+        <v>161</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>154</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" t="s">
+        <v>161</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" t="s">
+        <v>159</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>163</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" t="s">
+        <v>159</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" t="s">
+        <v>172</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>175</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" t="s">
+        <v>173</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>175</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>175</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>59</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" t="s">
+        <v>178</v>
+      </c>
+      <c r="G29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" t="s">
+        <v>179</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>187</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>59</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" t="s">
+        <v>178</v>
+      </c>
+      <c r="G30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>188</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>59</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>189</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>59</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>190</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>59</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>190</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>59</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>190</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>59</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>192</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>59</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>193</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>59</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>194</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>59</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>60</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>60</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
+        <v>60</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>60</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <v>60</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>60</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
+        <v>60</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15">
+        <v>60</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>35</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>35</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>35</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>35</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>35</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>35</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>35</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <v>35</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>35</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>36</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>36</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>36</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>36</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>36</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>36</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>36</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>36</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <v>36</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>